--- a/data/FY25Q2.xlsx
+++ b/data/FY25Q2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morio/Downloads/26Q1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9AA4D6-55BE-4F4D-8AAA-9A25830A904F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAE34BC-4262-3E4F-AAEC-3205309C39F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="760" windowWidth="23560" windowHeight="20140" xr2:uid="{021FACC0-6583-9245-81B4-0A7BE4D712CF}"/>
   </bookViews>
   <sheets>
-    <sheet name="25Q1T" sheetId="4" r:id="rId1"/>
+    <sheet name="25Q2" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1055,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E14355-6941-2845-BCEC-077BE07F4927}">
   <dimension ref="A1:CY84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="CU16" sqref="CU16:CV16"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1703,12 +1703,12 @@
         <v>46</v>
       </c>
       <c r="BG5" s="17">
-        <v>9691</v>
+        <v>0</v>
       </c>
       <c r="BH5" s="39"/>
       <c r="BI5" s="12">
         <f t="shared" ref="BI5:BJ6" si="2">BG5-AY5</f>
-        <v>5838</v>
+        <v>-3853</v>
       </c>
       <c r="BJ5" s="14">
         <f t="shared" si="2"/>
@@ -1726,12 +1726,12 @@
         <v>46</v>
       </c>
       <c r="BO5" s="17">
-        <v>8806</v>
+        <v>0</v>
       </c>
       <c r="BP5" s="39"/>
       <c r="BQ5" s="12">
         <f t="shared" ref="BQ5:BR6" si="4">BO5-BG5</f>
-        <v>-885</v>
+        <v>0</v>
       </c>
       <c r="BR5" s="14">
         <f t="shared" si="4"/>
@@ -1772,7 +1772,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="17">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" s="39"/>
       <c r="E6" s="40"/>
@@ -1783,12 +1783,12 @@
         <v>47</v>
       </c>
       <c r="K6" s="17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L6" s="39"/>
       <c r="M6" s="12">
         <f t="shared" ref="M6:N6" si="6">K6-C6</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6" s="14">
         <f t="shared" si="6"/>
@@ -1803,12 +1803,12 @@
         <v>47</v>
       </c>
       <c r="S6" s="17">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="T6" s="39"/>
       <c r="U6" s="12">
         <f t="shared" ref="U6:V6" si="8">S6-K6</f>
-        <v>10</v>
+        <v>-6</v>
       </c>
       <c r="V6" s="14">
         <f t="shared" si="8"/>
@@ -1823,12 +1823,12 @@
         <v>47</v>
       </c>
       <c r="AA6" s="17">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="AB6" s="39"/>
       <c r="AC6" s="12">
         <f t="shared" ref="AC6:AD6" si="10">AA6-S6</f>
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="AD6" s="14">
         <f t="shared" si="10"/>
@@ -1843,12 +1843,12 @@
         <v>47</v>
       </c>
       <c r="AI6" s="17">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="AJ6" s="39"/>
       <c r="AK6" s="12">
         <f t="shared" ref="AK6:AL6" si="12">AI6-AA6</f>
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="AL6" s="14">
         <f t="shared" si="12"/>
@@ -1863,12 +1863,12 @@
         <v>47</v>
       </c>
       <c r="AQ6" s="17">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="AR6" s="39"/>
       <c r="AS6" s="12">
         <f t="shared" ref="AS6:AT6" si="14">AQ6-AI6</f>
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="AT6" s="14">
         <f t="shared" si="14"/>
@@ -1888,7 +1888,7 @@
       <c r="AZ6" s="39"/>
       <c r="BA6" s="12">
         <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>25</v>
       </c>
       <c r="BB6" s="14">
         <f t="shared" si="0"/>
@@ -1903,12 +1903,12 @@
         <v>47</v>
       </c>
       <c r="BG6" s="17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BH6" s="39"/>
       <c r="BI6" s="12">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>-43</v>
       </c>
       <c r="BJ6" s="14">
         <f t="shared" si="2"/>
@@ -1923,12 +1923,12 @@
         <v>47</v>
       </c>
       <c r="BO6" s="17">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="BP6" s="39"/>
       <c r="BQ6" s="12">
         <f t="shared" si="4"/>
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="BR6" s="14">
         <f t="shared" si="4"/>
@@ -4919,7 +4919,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="17">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D18" s="39"/>
       <c r="E18" s="40"/>
@@ -4930,7 +4930,7 @@
         <v>47</v>
       </c>
       <c r="K18" s="17">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L18" s="39"/>
       <c r="M18" s="12"/>
@@ -4941,7 +4941,7 @@
         <v>47</v>
       </c>
       <c r="S18" s="17">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="T18" s="39"/>
       <c r="U18" s="12"/>
@@ -4952,7 +4952,7 @@
         <v>47</v>
       </c>
       <c r="AA18" s="17">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AB18" s="39"/>
       <c r="AC18" s="12"/>
@@ -4963,7 +4963,7 @@
         <v>47</v>
       </c>
       <c r="AI18" s="17">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AJ18" s="39"/>
       <c r="AK18" s="12"/>
@@ -4974,7 +4974,7 @@
         <v>47</v>
       </c>
       <c r="AQ18" s="17">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AR18" s="39"/>
       <c r="AS18" s="12"/>
@@ -4985,12 +4985,12 @@
         <v>47</v>
       </c>
       <c r="AY18" s="17">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AZ18" s="39"/>
       <c r="BA18" s="12">
         <f t="shared" si="31"/>
-        <v>-14</v>
+        <v>-1</v>
       </c>
       <c r="BB18" s="14">
         <f t="shared" si="32"/>
@@ -5005,12 +5005,12 @@
         <v>47</v>
       </c>
       <c r="BG18" s="17">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="BH18" s="39"/>
       <c r="BI18" s="12">
         <f t="shared" si="34"/>
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="BJ18" s="14">
         <f t="shared" si="35"/>
@@ -5025,12 +5025,12 @@
         <v>47</v>
       </c>
       <c r="BO18" s="17">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="BP18" s="39"/>
       <c r="BQ18" s="12">
         <f t="shared" si="37"/>
-        <v>-16</v>
+        <v>-2</v>
       </c>
       <c r="BR18" s="14">
         <f t="shared" si="38"/>
@@ -5044,17 +5044,29 @@
       <c r="BV18" s="34" t="s">
         <v>47</v>
       </c>
+      <c r="BW18" s="17">
+        <v>5</v>
+      </c>
       <c r="CC18" s="16"/>
       <c r="CD18" s="34" t="s">
         <v>47</v>
       </c>
+      <c r="CE18" s="17">
+        <v>9</v>
+      </c>
       <c r="CK18" s="16"/>
       <c r="CL18" s="34" t="s">
         <v>47</v>
       </c>
+      <c r="CM18" s="17">
+        <v>15</v>
+      </c>
       <c r="CS18" s="16"/>
       <c r="CT18" s="34" t="s">
         <v>47</v>
+      </c>
+      <c r="CU18" s="17">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
@@ -8012,7 +8024,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30" s="40"/>
@@ -8023,7 +8035,7 @@
         <v>47</v>
       </c>
       <c r="K30" s="17">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L30" s="39"/>
       <c r="M30" s="12"/>
@@ -8034,7 +8046,7 @@
         <v>47</v>
       </c>
       <c r="S30" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T30" s="39"/>
       <c r="U30" s="12"/>
@@ -8045,7 +8057,7 @@
         <v>47</v>
       </c>
       <c r="AA30" s="17">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AB30" s="39"/>
       <c r="AC30" s="12"/>
@@ -8067,7 +8079,7 @@
         <v>47</v>
       </c>
       <c r="AQ30" s="17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AR30" s="39"/>
       <c r="AS30" s="12"/>
@@ -8078,7 +8090,7 @@
         <v>47</v>
       </c>
       <c r="AY30" s="17">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AZ30" s="39"/>
       <c r="BA30" s="12"/>
@@ -8089,7 +8101,7 @@
         <v>47</v>
       </c>
       <c r="BG30" s="17">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="BH30" s="39"/>
       <c r="BI30" s="12"/>
@@ -8100,7 +8112,7 @@
         <v>47</v>
       </c>
       <c r="BO30" s="17">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BP30" s="39"/>
       <c r="BQ30" s="12"/>
@@ -8111,28 +8123,28 @@
         <v>47</v>
       </c>
       <c r="BW30" s="17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CC30" s="16"/>
       <c r="CD30" s="34" t="s">
         <v>47</v>
       </c>
       <c r="CE30" s="17">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="CK30" s="16"/>
       <c r="CL30" s="34" t="s">
         <v>47</v>
       </c>
       <c r="CM30" s="17">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="CS30" s="16"/>
       <c r="CT30" s="34" t="s">
         <v>47</v>
       </c>
       <c r="CU30" s="17">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
@@ -8336,7 +8348,7 @@
         <v>81579.99999960998</v>
       </c>
       <c r="BY31" s="12">
-        <f t="shared" ref="BY31:BY40" si="111">BW31-BO31</f>
+        <f t="shared" ref="BY31:BY41" si="111">BW31-BO31</f>
         <v>-4</v>
       </c>
       <c r="BZ31" s="14">
@@ -8358,7 +8370,7 @@
         <v>76166.666666360004</v>
       </c>
       <c r="CG31" s="12">
-        <f t="shared" ref="CG31:CG40" si="114">CE31-BW31</f>
+        <f t="shared" ref="CG31:CG41" si="114">CE31-BW31</f>
         <v>-7</v>
       </c>
       <c r="CH31" s="14">
@@ -8380,7 +8392,7 @@
         <v>61814.285714030018</v>
       </c>
       <c r="CO31" s="12">
-        <f t="shared" ref="CO31:CO40" si="117">CM31-CE31</f>
+        <f t="shared" ref="CO31:CO41" si="117">CM31-CE31</f>
         <v>-23</v>
       </c>
       <c r="CP31" s="14">
@@ -8402,7 +8414,7 @@
         <v>122759.99999959995</v>
       </c>
       <c r="CW31" s="12">
-        <f t="shared" ref="CW31:CW40" si="120">CU31-CM31</f>
+        <f t="shared" ref="CW31:CW41" si="120">CU31-CM31</f>
         <v>92</v>
       </c>
       <c r="CX31" s="14">
@@ -11041,12 +11053,12 @@
         <v>46</v>
       </c>
       <c r="BG41" s="17">
-        <v>9691</v>
+        <v>1333</v>
       </c>
       <c r="BH41" s="39"/>
       <c r="BI41" s="12">
         <f t="shared" si="105"/>
-        <v>8312</v>
+        <v>-46</v>
       </c>
       <c r="BJ41" s="14">
         <f t="shared" si="106"/>
@@ -11064,12 +11076,12 @@
         <v>46</v>
       </c>
       <c r="BO41" s="17">
-        <v>8806</v>
+        <v>1656</v>
       </c>
       <c r="BP41" s="39"/>
       <c r="BQ41" s="12">
         <f t="shared" si="108"/>
-        <v>-885</v>
+        <v>323</v>
       </c>
       <c r="BR41" s="14">
         <f t="shared" si="109"/>
@@ -11085,23 +11097,51 @@
       <c r="BV41" s="34" t="s">
         <v>46</v>
       </c>
+      <c r="BW41" s="50">
+        <v>1516</v>
+      </c>
+      <c r="BY41" s="50">
+        <f t="shared" si="111"/>
+        <v>-140</v>
+      </c>
       <c r="CC41" s="16">
         <v>81</v>
       </c>
       <c r="CD41" s="34" t="s">
         <v>46</v>
       </c>
+      <c r="CE41" s="50">
+        <v>1403</v>
+      </c>
+      <c r="CG41" s="50">
+        <f t="shared" si="114"/>
+        <v>-113</v>
+      </c>
       <c r="CK41" s="16">
         <v>81</v>
       </c>
       <c r="CL41" s="34" t="s">
         <v>46</v>
       </c>
+      <c r="CM41" s="50">
+        <v>1199</v>
+      </c>
+      <c r="CO41" s="50">
+        <f t="shared" si="117"/>
+        <v>-204</v>
+      </c>
       <c r="CS41" s="16">
         <v>81</v>
       </c>
       <c r="CT41" s="34" t="s">
         <v>46</v>
+      </c>
+      <c r="CU41" s="50">
+        <v>1063</v>
+      </c>
+      <c r="CW41" s="50">
+        <f t="shared" si="120"/>
+        <v>-136</v>
       </c>
     </row>
     <row r="42" spans="1:103" s="17" customFormat="1" ht="22" customHeight="1">
@@ -11121,7 +11161,7 @@
         <v>47</v>
       </c>
       <c r="K42" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L42" s="39"/>
       <c r="M42" s="12"/>
@@ -11132,7 +11172,7 @@
         <v>47</v>
       </c>
       <c r="S42" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T42" s="39"/>
       <c r="U42" s="12"/>
@@ -11143,7 +11183,7 @@
         <v>47</v>
       </c>
       <c r="AA42" s="17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AB42" s="39"/>
       <c r="AC42" s="12"/>
@@ -11154,7 +11194,7 @@
         <v>47</v>
       </c>
       <c r="AI42" s="17">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AJ42" s="39"/>
       <c r="AK42" s="12"/>
@@ -11165,7 +11205,7 @@
         <v>47</v>
       </c>
       <c r="AQ42" s="17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AR42" s="39"/>
       <c r="AS42" s="12"/>
@@ -11176,7 +11216,7 @@
         <v>47</v>
       </c>
       <c r="AY42" s="17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AZ42" s="39"/>
       <c r="BA42" s="12"/>
@@ -11187,7 +11227,7 @@
         <v>47</v>
       </c>
       <c r="BG42" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH42" s="39"/>
       <c r="BI42" s="12"/>
@@ -11198,7 +11238,7 @@
         <v>47</v>
       </c>
       <c r="BO42" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP42" s="39"/>
       <c r="BQ42" s="12"/>
@@ -11216,7 +11256,7 @@
         <v>47</v>
       </c>
       <c r="CE42" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CK42" s="16"/>
       <c r="CL42" s="34" t="s">
@@ -14031,9 +14071,7 @@
       <c r="B53" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="47">
-        <v>31227</v>
-      </c>
+      <c r="C53" s="47"/>
       <c r="D53" s="1"/>
       <c r="E53" s="48"/>
       <c r="F53" s="48"/>
@@ -14045,13 +14083,11 @@
       <c r="J53" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="K53" s="47">
-        <v>25585</v>
-      </c>
+      <c r="K53" s="47"/>
       <c r="L53" s="1"/>
       <c r="M53" s="12">
         <f t="shared" si="123"/>
-        <v>-5642</v>
+        <v>0</v>
       </c>
       <c r="N53" s="14">
         <f t="shared" si="124"/>
@@ -14068,13 +14104,11 @@
       <c r="R53" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="S53" s="47">
-        <v>17917</v>
-      </c>
+      <c r="S53" s="47"/>
       <c r="T53" s="1"/>
       <c r="U53" s="12">
         <f t="shared" si="126"/>
-        <v>-7668</v>
+        <v>0</v>
       </c>
       <c r="V53" s="14">
         <f t="shared" si="127"/>
@@ -14091,13 +14125,11 @@
       <c r="Z53" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="AA53" s="47">
-        <v>17993</v>
-      </c>
+      <c r="AA53" s="47"/>
       <c r="AB53" s="1"/>
       <c r="AC53" s="12">
         <f t="shared" si="129"/>
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AD53" s="14">
         <f t="shared" si="130"/>
@@ -14114,13 +14146,11 @@
       <c r="AH53" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="AI53" s="47">
-        <v>12285</v>
-      </c>
+      <c r="AI53" s="47"/>
       <c r="AJ53" s="1"/>
       <c r="AK53" s="12">
         <f t="shared" si="132"/>
-        <v>-5708</v>
+        <v>0</v>
       </c>
       <c r="AL53" s="14">
         <f t="shared" si="133"/>
@@ -14137,13 +14167,11 @@
       <c r="AP53" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="AQ53" s="47">
-        <v>11491</v>
-      </c>
+      <c r="AQ53" s="47"/>
       <c r="AR53" s="1"/>
       <c r="AS53" s="12">
         <f t="shared" si="135"/>
-        <v>-794</v>
+        <v>0</v>
       </c>
       <c r="AT53" s="14">
         <f t="shared" si="136"/>
@@ -14160,13 +14188,11 @@
       <c r="AX53" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="AY53" s="47">
-        <v>11638</v>
-      </c>
+      <c r="AY53" s="47"/>
       <c r="AZ53" s="1"/>
       <c r="BA53" s="12">
         <f t="shared" si="138"/>
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="BB53" s="14">
         <f t="shared" si="139"/>
@@ -14183,13 +14209,11 @@
       <c r="BF53" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="BG53" s="17">
-        <v>9691</v>
-      </c>
+      <c r="BG53" s="17"/>
       <c r="BH53" s="39"/>
       <c r="BI53" s="12">
         <f t="shared" si="141"/>
-        <v>-1947</v>
+        <v>0</v>
       </c>
       <c r="BJ53" s="14">
         <f t="shared" si="142"/>
@@ -14206,13 +14230,11 @@
       <c r="BN53" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="BO53" s="17">
-        <v>8806</v>
-      </c>
+      <c r="BO53" s="17"/>
       <c r="BP53" s="39"/>
       <c r="BQ53" s="12">
         <f t="shared" si="144"/>
-        <v>-885</v>
+        <v>0</v>
       </c>
       <c r="BR53" s="14">
         <f t="shared" si="145"/>

--- a/data/FY25Q2.xlsx
+++ b/data/FY25Q2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morio/Downloads/26Q1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morio/GitHub/QBR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAE34BC-4262-3E4F-AAEC-3205309C39F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BE7B36-689A-FB45-B910-C4E63D90C5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="760" windowWidth="23560" windowHeight="20140" xr2:uid="{021FACC0-6583-9245-81B4-0A7BE4D712CF}"/>
   </bookViews>
@@ -208,10 +208,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>02/16~2/22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>02/23~03/01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -237,6 +233,10 @@
   </si>
   <si>
     <t>Trade in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02/16~02/22</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1055,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E14355-6941-2845-BCEC-077BE07F4927}">
   <dimension ref="A1:CY84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="BE3" sqref="BE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1239,32 +1239,32 @@
       <c r="AX2" s="24"/>
       <c r="AZ2" s="23"/>
       <c r="BE2" s="22" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="BF2" s="23"/>
       <c r="BK2" s="33"/>
       <c r="BM2" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BN2" s="24"/>
       <c r="BP2" s="23"/>
       <c r="BU2" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BV2" s="23"/>
       <c r="CA2" s="33"/>
       <c r="CC2" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="CD2" s="24"/>
       <c r="CF2" s="23"/>
       <c r="CK2" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="CL2" s="23"/>
       <c r="CQ2" s="33"/>
       <c r="CS2" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="CT2" s="24"/>
       <c r="CV2" s="23"/>
@@ -1593,7 +1593,7 @@
         <v>75</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="47">
         <v>8236</v>
@@ -1607,7 +1607,7 @@
         <v>75</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5" s="47">
         <v>7191</v>
@@ -1621,7 +1621,7 @@
         <v>75</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S5" s="47">
         <v>7169</v>
@@ -1635,7 +1635,7 @@
         <v>75</v>
       </c>
       <c r="Z5" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA5" s="47">
         <v>9064</v>
@@ -1649,7 +1649,7 @@
         <v>75</v>
       </c>
       <c r="AH5" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI5" s="47">
         <v>14041</v>
@@ -1663,7 +1663,7 @@
         <v>75</v>
       </c>
       <c r="AP5" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AQ5" s="47">
         <v>7909</v>
@@ -1677,7 +1677,7 @@
         <v>75</v>
       </c>
       <c r="AX5" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AY5" s="47">
         <v>3853</v>
@@ -1700,7 +1700,7 @@
         <v>75</v>
       </c>
       <c r="BF5" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BG5" s="17">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>75</v>
       </c>
       <c r="BN5" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BO5" s="17">
         <v>0</v>
@@ -1745,31 +1745,31 @@
         <v>75</v>
       </c>
       <c r="BV5" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CC5" s="16">
         <v>75</v>
       </c>
       <c r="CD5" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CK5" s="16">
         <v>75</v>
       </c>
       <c r="CL5" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CS5" s="16">
         <v>75</v>
       </c>
       <c r="CT5" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="17" customFormat="1" ht="22" customHeight="1">
       <c r="A6" s="16"/>
       <c r="B6" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="17">
         <v>17</v>
@@ -1780,7 +1780,7 @@
       <c r="G6" s="40"/>
       <c r="I6" s="16"/>
       <c r="J6" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6" s="17">
         <v>18</v>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="Q6" s="16"/>
       <c r="R6" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S6" s="17">
         <v>12</v>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="Y6" s="16"/>
       <c r="Z6" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA6" s="17">
         <v>21</v>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="AG6" s="16"/>
       <c r="AH6" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI6" s="17">
         <v>24</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="AO6" s="16"/>
       <c r="AP6" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ6" s="17">
         <v>18</v>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="AW6" s="16"/>
       <c r="AX6" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY6" s="17">
         <v>43</v>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="BE6" s="16"/>
       <c r="BF6" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG6" s="17">
         <v>0</v>
@@ -1920,7 +1920,7 @@
       </c>
       <c r="BM6" s="16"/>
       <c r="BN6" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BO6" s="17">
         <v>0</v>
@@ -1940,19 +1940,19 @@
       </c>
       <c r="BU6" s="16"/>
       <c r="BV6" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CC6" s="16"/>
       <c r="CD6" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CK6" s="16"/>
       <c r="CL6" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CS6" s="16"/>
       <c r="CT6" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
@@ -4755,7 +4755,7 @@
         <v>76</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="47">
         <v>5572</v>
@@ -4769,7 +4769,7 @@
         <v>76</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17" s="47">
         <v>4352</v>
@@ -4783,7 +4783,7 @@
         <v>76</v>
       </c>
       <c r="R17" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S17" s="47">
         <v>4624</v>
@@ -4797,7 +4797,7 @@
         <v>76</v>
       </c>
       <c r="Z17" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA17" s="47">
         <v>5595</v>
@@ -4811,7 +4811,7 @@
         <v>76</v>
       </c>
       <c r="AH17" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI17" s="47">
         <v>8740</v>
@@ -4825,7 +4825,7 @@
         <v>76</v>
       </c>
       <c r="AP17" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AQ17" s="47">
         <v>5678</v>
@@ -4839,7 +4839,7 @@
         <v>76</v>
       </c>
       <c r="AX17" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AY17" s="47">
         <v>5357</v>
@@ -4853,7 +4853,7 @@
         <v>76</v>
       </c>
       <c r="BF17" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BG17" s="17">
         <v>5267</v>
@@ -4867,7 +4867,7 @@
         <v>76</v>
       </c>
       <c r="BN17" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BO17" s="17">
         <v>6196</v>
@@ -4880,7 +4880,7 @@
         <v>76</v>
       </c>
       <c r="BV17" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BW17" s="50">
         <v>5133</v>
@@ -4889,7 +4889,7 @@
         <v>76</v>
       </c>
       <c r="CD17" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CE17" s="50">
         <v>5925</v>
@@ -4898,7 +4898,7 @@
         <v>76</v>
       </c>
       <c r="CL17" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CM17" s="50">
         <v>6112</v>
@@ -4907,7 +4907,7 @@
         <v>76</v>
       </c>
       <c r="CT17" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CU17" s="50">
         <v>5119</v>
@@ -4916,7 +4916,7 @@
     <row r="18" spans="1:103" s="17" customFormat="1" ht="22" customHeight="1">
       <c r="A18" s="16"/>
       <c r="B18" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="17">
         <v>5</v>
@@ -4927,7 +4927,7 @@
       <c r="G18" s="40"/>
       <c r="I18" s="16"/>
       <c r="J18" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18" s="17">
         <v>10</v>
@@ -4938,7 +4938,7 @@
       <c r="O18" s="13"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S18" s="17">
         <v>20</v>
@@ -4949,7 +4949,7 @@
       <c r="W18" s="13"/>
       <c r="Y18" s="16"/>
       <c r="Z18" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA18" s="17">
         <v>14</v>
@@ -4960,7 +4960,7 @@
       <c r="AE18" s="13"/>
       <c r="AG18" s="16"/>
       <c r="AH18" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI18" s="17">
         <v>15</v>
@@ -4971,7 +4971,7 @@
       <c r="AM18" s="13"/>
       <c r="AO18" s="16"/>
       <c r="AP18" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ18" s="17">
         <v>13</v>
@@ -4982,7 +4982,7 @@
       <c r="AU18" s="13"/>
       <c r="AW18" s="16"/>
       <c r="AX18" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY18" s="17">
         <v>12</v>
@@ -5002,7 +5002,7 @@
       </c>
       <c r="BE18" s="16"/>
       <c r="BF18" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG18" s="17">
         <v>13</v>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="BM18" s="16"/>
       <c r="BN18" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BO18" s="17">
         <v>11</v>
@@ -5042,28 +5042,28 @@
       </c>
       <c r="BU18" s="16"/>
       <c r="BV18" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BW18" s="17">
         <v>5</v>
       </c>
       <c r="CC18" s="16"/>
       <c r="CD18" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CE18" s="17">
         <v>9</v>
       </c>
       <c r="CK18" s="16"/>
       <c r="CL18" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CM18" s="17">
         <v>15</v>
       </c>
       <c r="CS18" s="16"/>
       <c r="CT18" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CU18" s="17">
         <v>9</v>
@@ -7860,7 +7860,7 @@
         <v>77</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="47">
         <v>3078</v>
@@ -7874,7 +7874,7 @@
         <v>77</v>
       </c>
       <c r="J29" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29" s="47">
         <v>1722</v>
@@ -7888,7 +7888,7 @@
         <v>77</v>
       </c>
       <c r="R29" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S29" s="47">
         <v>2069</v>
@@ -7902,7 +7902,7 @@
         <v>77</v>
       </c>
       <c r="Z29" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA29" s="47">
         <v>2492</v>
@@ -7916,7 +7916,7 @@
         <v>77</v>
       </c>
       <c r="AH29" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI29" s="47">
         <v>7254</v>
@@ -7930,7 +7930,7 @@
         <v>77</v>
       </c>
       <c r="AP29" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AQ29" s="47">
         <v>2547</v>
@@ -7944,7 +7944,7 @@
         <v>77</v>
       </c>
       <c r="AX29" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AY29" s="47">
         <v>2062</v>
@@ -7958,7 +7958,7 @@
         <v>77</v>
       </c>
       <c r="BF29" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BG29" s="17">
         <v>2237</v>
@@ -7972,7 +7972,7 @@
         <v>77</v>
       </c>
       <c r="BN29" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BO29" s="17">
         <v>2924</v>
@@ -7985,7 +7985,7 @@
         <v>77</v>
       </c>
       <c r="BV29" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BW29" s="50">
         <v>1989</v>
@@ -7994,7 +7994,7 @@
         <v>77</v>
       </c>
       <c r="CD29" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CE29" s="50">
         <v>1948</v>
@@ -8003,7 +8003,7 @@
         <v>77</v>
       </c>
       <c r="CL29" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CM29" s="50">
         <v>1937</v>
@@ -8012,7 +8012,7 @@
         <v>77</v>
       </c>
       <c r="CT29" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CU29" s="50">
         <v>2244</v>
@@ -8021,7 +8021,7 @@
     <row r="30" spans="1:103" s="17" customFormat="1" ht="22" customHeight="1">
       <c r="A30" s="16"/>
       <c r="B30" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="17">
         <v>4</v>
@@ -8032,7 +8032,7 @@
       <c r="G30" s="40"/>
       <c r="I30" s="16"/>
       <c r="J30" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K30" s="17">
         <v>6</v>
@@ -8043,7 +8043,7 @@
       <c r="O30" s="13"/>
       <c r="Q30" s="16"/>
       <c r="R30" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S30" s="17">
         <v>4</v>
@@ -8054,7 +8054,7 @@
       <c r="W30" s="13"/>
       <c r="Y30" s="16"/>
       <c r="Z30" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA30" s="17">
         <v>2</v>
@@ -8065,7 +8065,7 @@
       <c r="AE30" s="13"/>
       <c r="AG30" s="16"/>
       <c r="AH30" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI30" s="17">
         <v>8</v>
@@ -8076,7 +8076,7 @@
       <c r="AM30" s="13"/>
       <c r="AO30" s="16"/>
       <c r="AP30" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ30" s="17">
         <v>3</v>
@@ -8087,7 +8087,7 @@
       <c r="AU30" s="13"/>
       <c r="AW30" s="16"/>
       <c r="AX30" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY30" s="17">
         <v>6</v>
@@ -8098,7 +8098,7 @@
       <c r="BC30" s="13"/>
       <c r="BE30" s="16"/>
       <c r="BF30" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG30" s="17">
         <v>0</v>
@@ -8109,7 +8109,7 @@
       <c r="BK30" s="13"/>
       <c r="BM30" s="16"/>
       <c r="BN30" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BO30" s="17">
         <v>4</v>
@@ -8120,28 +8120,28 @@
       <c r="BS30" s="13"/>
       <c r="BU30" s="16"/>
       <c r="BV30" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BW30" s="17">
         <v>4</v>
       </c>
       <c r="CC30" s="16"/>
       <c r="CD30" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CE30" s="17">
         <v>5</v>
       </c>
       <c r="CK30" s="16"/>
       <c r="CL30" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CM30" s="17">
         <v>3</v>
       </c>
       <c r="CS30" s="16"/>
       <c r="CT30" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CU30" s="17">
         <v>3</v>
@@ -10943,7 +10943,7 @@
         <v>81</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="47">
         <v>1692</v>
@@ -10957,7 +10957,7 @@
         <v>81</v>
       </c>
       <c r="J41" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K41" s="47">
         <v>1346</v>
@@ -10971,7 +10971,7 @@
         <v>81</v>
       </c>
       <c r="R41" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S41" s="47">
         <v>1415</v>
@@ -10985,7 +10985,7 @@
         <v>81</v>
       </c>
       <c r="Z41" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA41" s="47">
         <v>1830</v>
@@ -10999,7 +10999,7 @@
         <v>81</v>
       </c>
       <c r="AH41" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI41" s="47">
         <v>3707</v>
@@ -11013,7 +11013,7 @@
         <v>81</v>
       </c>
       <c r="AP41" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AQ41" s="47">
         <v>1643</v>
@@ -11027,7 +11027,7 @@
         <v>81</v>
       </c>
       <c r="AX41" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AY41" s="47">
         <v>1379</v>
@@ -11050,7 +11050,7 @@
         <v>81</v>
       </c>
       <c r="BF41" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BG41" s="17">
         <v>1333</v>
@@ -11073,7 +11073,7 @@
         <v>81</v>
       </c>
       <c r="BN41" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BO41" s="17">
         <v>1656</v>
@@ -11095,7 +11095,7 @@
         <v>81</v>
       </c>
       <c r="BV41" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BW41" s="50">
         <v>1516</v>
@@ -11108,7 +11108,7 @@
         <v>81</v>
       </c>
       <c r="CD41" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CE41" s="50">
         <v>1403</v>
@@ -11121,7 +11121,7 @@
         <v>81</v>
       </c>
       <c r="CL41" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CM41" s="50">
         <v>1199</v>
@@ -11134,7 +11134,7 @@
         <v>81</v>
       </c>
       <c r="CT41" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CU41" s="50">
         <v>1063</v>
@@ -11147,7 +11147,7 @@
     <row r="42" spans="1:103" s="17" customFormat="1" ht="22" customHeight="1">
       <c r="A42" s="16"/>
       <c r="B42" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="17">
         <v>5</v>
@@ -11158,7 +11158,7 @@
       <c r="G42" s="40"/>
       <c r="I42" s="16"/>
       <c r="J42" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K42" s="17">
         <v>5</v>
@@ -11169,7 +11169,7 @@
       <c r="O42" s="13"/>
       <c r="Q42" s="16"/>
       <c r="R42" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S42" s="17">
         <v>2</v>
@@ -11180,7 +11180,7 @@
       <c r="W42" s="13"/>
       <c r="Y42" s="16"/>
       <c r="Z42" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA42" s="17">
         <v>10</v>
@@ -11191,7 +11191,7 @@
       <c r="AE42" s="13"/>
       <c r="AG42" s="16"/>
       <c r="AH42" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI42" s="17">
         <v>21</v>
@@ -11202,7 +11202,7 @@
       <c r="AM42" s="13"/>
       <c r="AO42" s="16"/>
       <c r="AP42" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ42" s="17">
         <v>8</v>
@@ -11213,7 +11213,7 @@
       <c r="AU42" s="13"/>
       <c r="AW42" s="16"/>
       <c r="AX42" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY42" s="17">
         <v>0</v>
@@ -11224,7 +11224,7 @@
       <c r="BC42" s="13"/>
       <c r="BE42" s="16"/>
       <c r="BF42" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG42" s="17">
         <v>4</v>
@@ -11235,7 +11235,7 @@
       <c r="BK42" s="13"/>
       <c r="BM42" s="16"/>
       <c r="BN42" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BO42" s="17">
         <v>4</v>
@@ -11246,28 +11246,28 @@
       <c r="BS42" s="13"/>
       <c r="BU42" s="16"/>
       <c r="BV42" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BW42" s="17">
         <v>5</v>
       </c>
       <c r="CC42" s="16"/>
       <c r="CD42" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CE42" s="17">
         <v>4</v>
       </c>
       <c r="CK42" s="16"/>
       <c r="CL42" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CM42" s="17">
         <v>0</v>
       </c>
       <c r="CS42" s="16"/>
       <c r="CT42" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CU42" s="17">
         <v>0</v>
@@ -14069,7 +14069,7 @@
         <v>84</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C53" s="47"/>
       <c r="D53" s="1"/>
@@ -14081,7 +14081,7 @@
         <v>84</v>
       </c>
       <c r="J53" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K53" s="47"/>
       <c r="L53" s="1"/>
@@ -14102,7 +14102,7 @@
         <v>84</v>
       </c>
       <c r="R53" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S53" s="47"/>
       <c r="T53" s="1"/>
@@ -14123,7 +14123,7 @@
         <v>84</v>
       </c>
       <c r="Z53" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA53" s="47"/>
       <c r="AB53" s="1"/>
@@ -14144,7 +14144,7 @@
         <v>84</v>
       </c>
       <c r="AH53" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI53" s="47"/>
       <c r="AJ53" s="1"/>
@@ -14165,7 +14165,7 @@
         <v>84</v>
       </c>
       <c r="AP53" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AQ53" s="47"/>
       <c r="AR53" s="1"/>
@@ -14186,7 +14186,7 @@
         <v>84</v>
       </c>
       <c r="AX53" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AY53" s="47"/>
       <c r="AZ53" s="1"/>
@@ -14207,7 +14207,7 @@
         <v>84</v>
       </c>
       <c r="BF53" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BG53" s="17"/>
       <c r="BH53" s="39"/>
@@ -14228,7 +14228,7 @@
         <v>84</v>
       </c>
       <c r="BN53" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BO53" s="17"/>
       <c r="BP53" s="39"/>
@@ -14248,31 +14248,31 @@
         <v>84</v>
       </c>
       <c r="BV53" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CC53" s="16">
         <v>84</v>
       </c>
       <c r="CD53" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CK53" s="16">
         <v>84</v>
       </c>
       <c r="CL53" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CS53" s="16">
         <v>84</v>
       </c>
       <c r="CT53" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:103" s="17" customFormat="1" ht="22" customHeight="1">
       <c r="A54" s="16"/>
       <c r="B54" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D54" s="39"/>
       <c r="E54" s="40"/>
@@ -14280,7 +14280,7 @@
       <c r="G54" s="40"/>
       <c r="I54" s="16"/>
       <c r="J54" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L54" s="39"/>
       <c r="M54" s="12"/>
@@ -14288,7 +14288,7 @@
       <c r="O54" s="13"/>
       <c r="Q54" s="16"/>
       <c r="R54" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T54" s="39"/>
       <c r="U54" s="12"/>
@@ -14296,7 +14296,7 @@
       <c r="W54" s="13"/>
       <c r="Y54" s="16"/>
       <c r="Z54" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB54" s="39"/>
       <c r="AC54" s="12"/>
@@ -14304,7 +14304,7 @@
       <c r="AE54" s="13"/>
       <c r="AG54" s="16"/>
       <c r="AH54" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ54" s="39"/>
       <c r="AK54" s="12"/>
@@ -14312,7 +14312,7 @@
       <c r="AM54" s="13"/>
       <c r="AO54" s="16"/>
       <c r="AP54" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR54" s="39"/>
       <c r="AS54" s="12"/>
@@ -14320,7 +14320,7 @@
       <c r="AU54" s="13"/>
       <c r="AW54" s="16"/>
       <c r="AX54" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ54" s="39"/>
       <c r="BA54" s="12"/>
@@ -14328,7 +14328,7 @@
       <c r="BC54" s="13"/>
       <c r="BE54" s="16"/>
       <c r="BF54" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BH54" s="39"/>
       <c r="BI54" s="12"/>
@@ -14336,7 +14336,7 @@
       <c r="BK54" s="13"/>
       <c r="BM54" s="16"/>
       <c r="BN54" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BP54" s="39"/>
       <c r="BQ54" s="12"/>
@@ -14344,19 +14344,19 @@
       <c r="BS54" s="13"/>
       <c r="BU54" s="16"/>
       <c r="BV54" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CC54" s="16"/>
       <c r="CD54" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CK54" s="16"/>
       <c r="CL54" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CS54" s="16"/>
       <c r="CT54" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">

--- a/data/FY25Q2.xlsx
+++ b/data/FY25Q2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morio/GitHub/QBR/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morio/Downloads/26Q1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BE7B36-689A-FB45-B910-C4E63D90C5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA54660-513C-5548-8D5B-4801A41714C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="760" windowWidth="23560" windowHeight="20140" xr2:uid="{021FACC0-6583-9245-81B4-0A7BE4D712CF}"/>
+    <workbookView xWindow="20" yWindow="740" windowWidth="23560" windowHeight="20140" xr2:uid="{021FACC0-6583-9245-81B4-0A7BE4D712CF}"/>
   </bookViews>
   <sheets>
     <sheet name="25Q2" sheetId="4" r:id="rId1"/>
@@ -1055,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E14355-6941-2845-BCEC-077BE07F4927}">
   <dimension ref="A1:CY84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="BE3" sqref="BE3"/>
+    <sheetView tabSelected="1" topLeftCell="AL25" zoomScale="81" workbookViewId="0">
+      <selection activeCell="BB3" sqref="BB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1883,12 +1883,12 @@
         <v>46</v>
       </c>
       <c r="AY6" s="17">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="AZ6" s="39"/>
       <c r="BA6" s="12">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>-14</v>
       </c>
       <c r="BB6" s="14">
         <f t="shared" si="0"/>
@@ -1908,7 +1908,7 @@
       <c r="BH6" s="39"/>
       <c r="BI6" s="12">
         <f t="shared" si="2"/>
-        <v>-43</v>
+        <v>-4</v>
       </c>
       <c r="BJ6" s="14">
         <f t="shared" si="2"/>
